--- a/testData/futbol.xlsx
+++ b/testData/futbol.xlsx
@@ -2,17 +2,34 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="9" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UD ALMERÍA" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAYO VALLECANO" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RCD MALLORCA" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VILLARREAL CF" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UD LAS PALMAS" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REAL SOCIEDAD" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RC CELTA" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REAL MADRID" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CÁDIZ CF" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="UD ALMERÍA" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GRANADA CF" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SEVILLA FC" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GIRONA FC" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="FC BARCELONA" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="VALENCIA CF" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CA OSASUNA" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATHLETIC CLUB" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="REAL BETIS" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="GETAFE CF" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DEPORTIVO ALAVÉS" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RAYO VALLECANO" sheetId="20" state="visible" r:id="rId20"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ATLÉTICO DE MADRID" sheetId="21" state="visible" r:id="rId21"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -52,7 +69,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -421,8 +438,1262 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GRANADA CF RCD MALLORCA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GRANADA CF RCD MALLORCA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REAL SOCIEDAD GRANADA CF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REAL SOCIEDAD GRANADA CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GRANADA CF GIRONA FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS GRANADA CF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
+      <c r="C7" t="inlineStr"/>
+      <c r="D7" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SEVILLA FC GIRONA FC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SEVILLA FC GIRONA FC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>SEVILLA FC UD LAS PALMAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CA OSASUNA SEVILLA FC</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>SEVILLA FC GIRONA FC</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>SEVILLA FC GIRONA FC</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GIRONA FC UD LAS PALMAS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIRONA FC UD LAS PALMAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GRANADA CF GIRONA FC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GIRONA FC RCD MALLORCA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>VILLARREAL CF FC BARCELONA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VILLARREAL CF FC BARCELONA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CA OSASUNA FC BARCELONA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CA OSASUNA FC BARCELONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FC BARCELONA REAL BETIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FC BARCELONA RC CELTA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>VALENCIA CF CA OSASUNA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VALENCIA CF CA OSASUNA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DEPORTIVO ALAVÉS VALENCIA CF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DEPORTIVO ALAVÉS VALENCIA CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>VALENCIA CF ATLÉTICO DE MADRID</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA VALENCIA CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>VALENCIA CF CA OSASUNA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VALENCIA CF CA OSASUNA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CA OSASUNA FC BARCELONA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CA OSASUNA FC BARCELONA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GETAFE CF CA OSASUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CA OSASUNA SEVILLA FC</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATHLETIC CLUB REAL BETIS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ATHLETIC CLUB REAL BETIS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA ATHLETIC CLUB</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA ATHLETIC CLUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>ATHLETIC CLUB CÁDIZ CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DEPORTIVO ALAVÉS ATHLETIC CLUB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ATHLETIC CLUB REAL BETIS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ATHLETIC CLUB REAL BETIS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REAL BETIS RAYO VALLECANO</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REAL BETIS RAYO VALLECANO</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>FC BARCELONA REAL BETIS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REAL BETIS CÁDIZ CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GETAFE CF DEPORTIVO ALAVÉS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GETAFE CF DEPORTIVO ALAVÉS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REAL MADRID GETAFE CF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REAL MADRID GETAFE CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GETAFE CF CA OSASUNA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REAL SOCIEDAD GETAFE CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>GETAFE CF DEPORTIVO ALAVÉS</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>GETAFE CF DEPORTIVO ALAVÉS</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>DEPORTIVO ALAVÉS VALENCIA CF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>DEPORTIVO ALAVÉS VALENCIA CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RAYO VALLECANO DEPORTIVO ALAVÉS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>DEPORTIVO ALAVÉS ATHLETIC CLUB</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -433,28 +1704,156 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>GRANADA CF RCD MALLORCA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA ATHLETIC CLUB</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RC CELTA RCD MALLORCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>GIRONA FC RCD MALLORCA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>teams</t>
+          <t>partido</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>yellowCards</t>
+          <t>tarjetasA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>redCards</t>
+          <t>tarjetasR</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -466,12 +1865,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>UD ALMERÍA</t>
+          <t>RAYO VALLECANO ATLÉTICO DE MADRID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -482,6 +1881,119 @@
       <c r="D2" t="inlineStr">
         <is>
           <t>8</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>REAL BETIS RAYO VALLECANO</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>REAL BETIS RAYO VALLECANO</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>RAYO VALLECANO DEPORTIVO ALAVÉS</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RAYO VALLECANO VILLARREAL CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RAYO VALLECANO ATLÉTICO DE MADRID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>VALENCIA CF ATLÉTICO DE MADRID</t>
         </is>
       </c>
     </row>
@@ -496,28 +2008,657 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RCD MALLORCA VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>VILLARREAL CF FC BARCELONA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>VILLARREAL CF UD ALMERÍA</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>RAYO VALLECANO VILLARREAL CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS REAL SOCIEDAD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS REAL SOCIEDAD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS REAL SOCIEDAD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>GIRONA FC UD LAS PALMAS</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>GIRONA FC UD LAS PALMAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>SEVILLA FC UD LAS PALMAS</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS GRANADA CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS REAL SOCIEDAD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS REAL SOCIEDAD</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UD LAS PALMAS REAL SOCIEDAD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REAL SOCIEDAD GRANADA CF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REAL SOCIEDAD GRANADA CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REAL MADRID REAL SOCIEDAD</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>REAL SOCIEDAD GETAFE CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>RC CELTA REAL MADRID</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RC CELTA REAL MADRID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RC CELTA REAL MADRID</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA RC CELTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>RC CELTA RCD MALLORCA</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>FC BARCELONA RC CELTA</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>teams</t>
+          <t>partido</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>yellowCards</t>
+          <t>tarjetasA</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>redCards</t>
+          <t>tarjetasR</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
@@ -529,7 +2670,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>RAYO VALLECANO</t>
+          <t>RC CELTA REAL MADRID</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -544,7 +2685,445 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>RC CELTA REAL MADRID</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
           <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>RC CELTA REAL MADRID</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>REAL MADRID GETAFE CF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>REAL MADRID GETAFE CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>REAL MADRID REAL SOCIEDAD</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF UD ALMERÍA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF UD ALMERÍA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF VILLARREAL CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>ATHLETIC CLUB CÁDIZ CF</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>REAL BETIS CÁDIZ CF</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>partido</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>tarjetasA</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>tarjetasR</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>corners</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF UD ALMERÍA</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>CÁDIZ CF UD ALMERÍA</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA RC CELTA</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA RC CELTA</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA RC CELTA</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA RC CELTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA RC CELTA</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>VILLARREAL CF UD ALMERÍA</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>UD ALMERÍA VALENCIA CF</t>
         </is>
       </c>
     </row>
